--- a/inst/extdata/IPV_DSSEI.xlsx
+++ b/inst/extdata/IPV_DSSEI.xlsx
@@ -812,7 +812,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="50.1" customHeight="1"/>
